--- a/Excel/Portfolio Optimization/Four Stock Portfolio and Graphing Efficient Portfolio Frontier.xlsx
+++ b/Excel/Portfolio Optimization/Four Stock Portfolio and Graphing Efficient Portfolio Frontier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Projects_GH\Excel\Portfolio Optimization using Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Projects_GH\Excel\Portfolio Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5E289-3962-4711-A741-EE464C029336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540741F9-8339-4335-BF64-F2B0E2736381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6DE61724-7EFE-4D0D-9484-619C1BEFCE8F}"/>
   </bookViews>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -332,9 +332,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C95ADB3-5661-4774-B861-C93F7D322DAF}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,9 +1612,10 @@
     <col min="12" max="12" width="8.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="4"/>
+    <col min="15" max="15" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="4" bestFit="1"/>
-    <col min="17" max="18" width="9.140625" style="4"/>
+    <col min="17" max="17" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="4"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
@@ -1643,16 +1643,16 @@
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1837,22 +1837,22 @@
         <v>-7.8966596761242819E-3</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>VARP(MonthlyReturn!$A$2:$A$1048576)</f>
         <v>5.5933642185151998E-3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f>I8</f>
         <v>1.1125985943665462E-3</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <f>I9</f>
         <v>2.9529477772753175E-3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <f>I10</f>
         <v>1.9433717901886074E-3</v>
       </c>
@@ -1877,21 +1877,21 @@
         <v>-6.6366213812278863E-2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>1.1125985943665462E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f>VARP(MonthlyReturn!$B$2:$B$1048576)</f>
         <v>5.6760037180578708E-3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <f>J9</f>
         <v>3.235462672641771E-3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <f>J10</f>
         <v>4.9254996407714874E-4</v>
       </c>
@@ -1916,20 +1916,20 @@
         <v>-2.6534973580748392E-3</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>2.9529477772753175E-3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>3.235462672641771E-3</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <f>VARP(MonthlyReturn!$C$2:$C$1048576)</f>
         <v>1.2922744469964298E-2</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <f>K10</f>
         <v>2.5707278684361924E-3</v>
       </c>
@@ -1954,19 +1954,19 @@
         <v>-0.18265978790886164</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>1.9433717901886074E-3</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>4.9254996407714874E-4</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>2.5707278684361924E-3</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <f>VARP(MonthlyReturn!$D$2:$D$1048576)</f>
         <v>1.4120933857870707E-2</v>
       </c>
